--- a/2.PreliminaryDesign/用户测试用例.xlsx
+++ b/2.PreliminaryDesign/用户测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>功能描述</t>
   </si>
@@ -45,7 +45,20 @@
     <t>实际情况</t>
   </si>
   <si>
-    <t>用户ID：admin
+    <t>用户ID：
+密码：
+登录方式：管理员</t>
+  </si>
+  <si>
+    <t>请输入用户名和密码</t>
+  </si>
+  <si>
+    <t>用户ID：
+密码：
+登录方式：普通用户</t>
+  </si>
+  <si>
+    <t>用户ID：1001
 密码：123
 登录方式：管理员</t>
   </si>
@@ -66,21 +79,22 @@
 登录方式：管理员</t>
   </si>
   <si>
+    <t>请输入密码</t>
+  </si>
+  <si>
     <t>用户ID：
 密码：123
 登录方式：管理员</t>
   </si>
   <si>
+    <t>请输入用户名</t>
+  </si>
+  <si>
     <t>用户ID：1002
 密码：111
 登录方式：普通用户</t>
   </si>
   <si>
-    <t>用户ID：1002
-密码：
-登录方式：普通用户</t>
-  </si>
-  <si>
     <t>用户ID：
 密码：113
 登录方式：普通用户</t>
@@ -93,6 +107,63 @@
   </si>
   <si>
     <t>成功登录管理员页面</t>
+  </si>
+  <si>
+    <t>姓名：
+卡号：
+性别：
+部门：</t>
+  </si>
+  <si>
+    <t>用户名不能为空</t>
+  </si>
+  <si>
+    <t>姓名：小王
+卡号：
+性别：
+部门：</t>
+  </si>
+  <si>
+    <t>卡号不能为空</t>
+  </si>
+  <si>
+    <t>姓名：小王
+卡号：1002
+性别：
+部门：</t>
+  </si>
+  <si>
+    <t>卡号已存在</t>
+  </si>
+  <si>
+    <t>姓名：小王
+卡号：1055
+性别：
+部门：</t>
+  </si>
+  <si>
+    <t>添加成功</t>
+  </si>
+  <si>
+    <t>姓名：小王
+卡号：5555
+性别：男
+部门：财务</t>
+  </si>
+  <si>
+    <t>姓名：1234
+卡号：abcd
+性别：
+部门：</t>
+  </si>
+  <si>
+    <t>卡号为数字</t>
+  </si>
+  <si>
+    <t>管理员删除用户</t>
+  </si>
+  <si>
+    <t>测试管理员删除用户功能是否完善</t>
   </si>
   <si>
     <t>姓名：小王
@@ -104,67 +175,67 @@
     <t>卡号重复</t>
   </si>
   <si>
-    <t>姓名：小王
-卡号：1002
-性别：
-部门：</t>
-  </si>
-  <si>
     <t>姓名：
 卡号：1004
 性别：男
 部门：财务</t>
   </si>
   <si>
-    <t>用户名不能为空</t>
-  </si>
-  <si>
     <t>姓名：小王
 卡号：
 性别：男
 部门：财务</t>
   </si>
   <si>
-    <t>卡号不能为空</t>
-  </si>
-  <si>
-    <t>姓名：小王
-卡号：5555
-性别：男
-部门：财务</t>
-  </si>
-  <si>
-    <t>添加成功</t>
-  </si>
-  <si>
-    <t>姓名：
-卡号：
-性别：
-部门：</t>
-  </si>
-  <si>
-    <t>请输入姓名和卡号</t>
-  </si>
-  <si>
-    <t>姓名：
-卡号：
-性别：男
-部门：财务</t>
-  </si>
-  <si>
-    <t>姓名：小王
-卡号：abcd
-性别：男
-部门：财务</t>
-  </si>
-  <si>
-    <t>卡号为数字</t>
-  </si>
-  <si>
-    <t>管理员删除用户</t>
-  </si>
-  <si>
-    <t>测试管理员删除用户功能是否完善</t>
+    <t>用户修改密码</t>
+  </si>
+  <si>
+    <t>测试用户修改密码功能</t>
+  </si>
+  <si>
+    <t>用户成功登录用户界面</t>
+  </si>
+  <si>
+    <t>新密码：123
+再次输入：123</t>
+  </si>
+  <si>
+    <t>修改成功</t>
+  </si>
+  <si>
+    <t>新密码：abc
+再次输入：abc</t>
+  </si>
+  <si>
+    <t>新密码：123
+再次输入：abc</t>
+  </si>
+  <si>
+    <t>两次密码不一致</t>
+  </si>
+  <si>
+    <t>新密码：abcdefghijklmnopq
+再次输入：123456</t>
+  </si>
+  <si>
+    <t>超过密码长度限制</t>
+  </si>
+  <si>
+    <t>新密码：1234567891234567
+再次输入：1234567891234567</t>
+  </si>
+  <si>
+    <t>新密码：
+再次输入：</t>
+  </si>
+  <si>
+    <t>管理员获取所有用户</t>
+  </si>
+  <si>
+    <t>测试管理员获取用户功能</t>
+  </si>
+  <si>
+    <t>管理员成功登录管理员界面</t>
   </si>
 </sst>
 </file>
@@ -172,12 +243,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,30 +265,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,22 +280,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,9 +294,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -264,6 +327,21 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,6 +361,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,17 +385,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,28 +407,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,192 +417,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -550,6 +614,96 @@
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -596,6 +750,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -627,20 +826,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,6 +873,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -671,32 +891,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,152 +928,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,26 +1089,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -917,10 +1122,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -986,41 +1224,44 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1905</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>10795</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>280035</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>256540</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33020</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="%7`EY20C7_N%EAKF[%(3[1F"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="839" t="3262" r="491" b="1810"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6309360" y="4949825"/>
-          <a:ext cx="5215890" cy="2864485"/>
+          <a:off x="266700" y="182880"/>
+          <a:ext cx="5281295" cy="4846955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1315,18 +1556,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I38"/>
+  <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.63888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5925925925926" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7407407407407" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="10.8888888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7777777777778" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="6.22222222222222" style="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="5.88888888888889" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" customHeight="1" spans="2:9">
@@ -1341,472 +1586,651 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="12"/>
+      <c r="I2" s="23"/>
     </row>
     <row r="3" customHeight="1" spans="2:9">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" customHeight="1" spans="2:9">
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" customHeight="1" spans="2:9">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="2:9">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="14"/>
-    </row>
-    <row r="7" ht="38" customHeight="1" spans="2:9">
-      <c r="B7" s="5" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" ht="39" customHeight="1" spans="2:9">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" ht="39" customHeight="1" spans="2:9">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" ht="38" customHeight="1" spans="2:9">
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="14"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" ht="38" customHeight="1" spans="2:9">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="14"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" ht="38" customHeight="1" spans="2:9">
-      <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:9">
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="14"/>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" ht="38" customHeight="1" spans="2:9">
-      <c r="B12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" ht="17.5" customHeight="1" spans="2:9">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="11"/>
+      <c r="B12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" ht="38" customHeight="1" spans="2:9">
+      <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" ht="17.5" customHeight="1" spans="2:3">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="11"/>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="12"/>
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="11"/>
-      <c r="B16" s="4" t="s">
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="13"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="11"/>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="24"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="12"/>
+      <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" ht="38" customHeight="1" spans="1:9">
-      <c r="A18" s="11"/>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="24"/>
+    </row>
+    <row r="19" ht="26" customHeight="1" spans="1:9">
+      <c r="A19" s="12"/>
+      <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" ht="58" customHeight="1" spans="1:9">
-      <c r="A19" s="11"/>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" ht="58" customHeight="1" spans="2:9">
-      <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" ht="58" customHeight="1" spans="2:9">
-      <c r="B21" s="5" t="s">
+      <c r="H19" s="5"/>
+      <c r="I19" s="24"/>
+    </row>
+    <row r="20" ht="50" customHeight="1" spans="1:9">
+      <c r="A20" s="12"/>
+      <c r="B20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" ht="50" customHeight="1" spans="2:9">
+      <c r="B21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="I21" s="24"/>
+    </row>
+    <row r="22" ht="50" customHeight="1" spans="2:9">
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="I22" s="24"/>
+    </row>
+    <row r="23" ht="50" customHeight="1" spans="2:9">
+      <c r="B23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="I23" s="24"/>
+    </row>
+    <row r="24" ht="50" customHeight="1" spans="2:9">
+      <c r="B24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" ht="50" customHeight="1" spans="2:9">
+      <c r="B25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="25"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:9">
+      <c r="B28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:9">
+      <c r="B29" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" customHeight="1" spans="2:9">
+      <c r="B30" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" ht="58" customHeight="1" spans="2:9">
-      <c r="B22" s="5" t="s">
+      <c r="I30" s="27"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:9">
+      <c r="B31" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="27"/>
+    </row>
+    <row r="32" ht="53" customHeight="1" spans="2:9">
+      <c r="B32" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="27"/>
+    </row>
+    <row r="33" ht="53" customHeight="1" spans="2:9">
+      <c r="B33" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="27"/>
+    </row>
+    <row r="34" ht="53" customHeight="1" spans="2:9">
+      <c r="B34" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" ht="58" customHeight="1" spans="2:9">
-      <c r="B23" s="5" t="s">
+      <c r="G34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="27"/>
+    </row>
+    <row r="35" ht="53" customHeight="1" spans="2:9">
+      <c r="B35" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" ht="58" customHeight="1" spans="2:9">
-      <c r="B24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" ht="58" customHeight="1" spans="2:9">
-      <c r="B25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" ht="58" customHeight="1" spans="2:9">
-      <c r="B26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" ht="58" customHeight="1" spans="2:9">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="30" customHeight="1" spans="2:9">
-      <c r="B30" s="2" t="s">
+      <c r="G35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="27"/>
+    </row>
+    <row r="36" ht="53" customHeight="1" spans="2:9">
+      <c r="B36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="28"/>
+    </row>
+    <row r="39" ht="22" customHeight="1" spans="2:9">
+      <c r="B39" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" customHeight="1" spans="2:9">
-      <c r="B31" s="4" t="s">
+      <c r="C39" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="2:9">
+      <c r="B40" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" customHeight="1" spans="2:9">
-      <c r="B32" s="4" t="s">
+      <c r="C40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="27"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:9">
+      <c r="B41" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" customHeight="1" spans="2:9">
-      <c r="B33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" ht="53" customHeight="1" spans="2:9">
-      <c r="B34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" ht="53" customHeight="1" spans="2:9">
-      <c r="B35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" ht="53" customHeight="1" spans="2:9">
-      <c r="B36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" ht="53" customHeight="1" spans="2:9">
-      <c r="B37" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" ht="53" customHeight="1" spans="2:9">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="15"/>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="27"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="2:9">
+      <c r="B42" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="27"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="2:9">
+      <c r="B43" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="27"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="2:9">
+      <c r="B44" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="27"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="2:9">
+      <c r="B45" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I45" s="27"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="2:9">
+      <c r="B46" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="27"/>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="2:9">
+      <c r="B47" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" customHeight="1" spans="2:9">
+      <c r="B48" s="18"/>
+      <c r="C48" s="11"/>
+      <c r="I48" s="27"/>
+    </row>
+    <row r="49" customHeight="1" spans="2:9">
+      <c r="B49" s="19"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="52" customHeight="1" spans="2:9">
+      <c r="B52" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="26"/>
+    </row>
+    <row r="53" customHeight="1" spans="2:9">
+      <c r="B53" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I53" s="27"/>
+    </row>
+    <row r="54" customHeight="1" spans="2:9">
+      <c r="B54" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I54" s="27"/>
+    </row>
+    <row r="55" customHeight="1" spans="2:9">
+      <c r="B55" s="17"/>
+      <c r="I55" s="27"/>
+    </row>
+    <row r="56" customHeight="1" spans="2:9">
+      <c r="B56" s="18"/>
+      <c r="C56" s="11"/>
+      <c r="I56" s="27"/>
+    </row>
+    <row r="57" customHeight="1" spans="2:9">
+      <c r="B57" s="18"/>
+      <c r="C57" s="11"/>
+      <c r="I57" s="27"/>
+    </row>
+    <row r="58" customHeight="1" spans="2:9">
+      <c r="B58" s="18"/>
+      <c r="C58" s="11"/>
+      <c r="I58" s="27"/>
+    </row>
+    <row r="59" customHeight="1" spans="2:9">
+      <c r="B59" s="18"/>
+      <c r="C59" s="11"/>
+      <c r="I59" s="27"/>
+    </row>
+    <row r="60" customHeight="1" spans="2:9">
+      <c r="B60" s="18"/>
+      <c r="C60" s="11"/>
+      <c r="I60" s="27"/>
+    </row>
+    <row r="61" customHeight="1" spans="2:9">
+      <c r="B61" s="18"/>
+      <c r="C61" s="11"/>
+      <c r="I61" s="27"/>
+    </row>
+    <row r="62" customHeight="1" spans="2:9">
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="129">
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
@@ -1834,12 +2258,12 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="G12:I12"/>
-    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="C17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="C18:I18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:I19"/>
@@ -1861,15 +2285,15 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="C28:I28"/>
+    <mergeCell ref="C29:I29"/>
     <mergeCell ref="C30:I30"/>
-    <mergeCell ref="C31:I31"/>
-    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -1882,12 +2306,60 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="G62:I62"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2.PreliminaryDesign/用户测试用例.xlsx
+++ b/2.PreliminaryDesign/用户测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
   <si>
     <t>功能描述</t>
   </si>
@@ -166,25 +166,16 @@
     <t>测试管理员删除用户功能是否完善</t>
   </si>
   <si>
-    <t>姓名：小王
-卡号：1001
-性别：男
-部门：财务</t>
-  </si>
-  <si>
-    <t>卡号重复</t>
-  </si>
-  <si>
-    <t>姓名：
-卡号：1004
-性别：男
-部门：财务</t>
-  </si>
-  <si>
-    <t>姓名：小王
-卡号：
-性别：男
-部门：财务</t>
+    <t>点击删除-----取消</t>
+  </si>
+  <si>
+    <t>取消删除</t>
+  </si>
+  <si>
+    <t>点击删除-----确定</t>
+  </si>
+  <si>
+    <t>该用户删除</t>
   </si>
   <si>
     <t>用户修改密码</t>
@@ -229,6 +220,9 @@
 再次输入：</t>
   </si>
   <si>
+    <t>请输入修改密码</t>
+  </si>
+  <si>
     <t>管理员获取所有用户</t>
   </si>
   <si>
@@ -236,6 +230,30 @@
   </si>
   <si>
     <t>管理员成功登录管理员界面</t>
+  </si>
+  <si>
+    <t>点击用户管理</t>
+  </si>
+  <si>
+    <t>显示用户列表</t>
+  </si>
+  <si>
+    <t>点击页码2</t>
+  </si>
+  <si>
+    <t>跳转到第二页</t>
+  </si>
+  <si>
+    <t>点击下一页按钮</t>
+  </si>
+  <si>
+    <t>跳转到下一页</t>
+  </si>
+  <si>
+    <t>点击上一页按钮</t>
+  </si>
+  <si>
+    <t>跳转到上一页</t>
   </si>
 </sst>
 </file>
@@ -1220,53 +1238,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>33020</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>26035</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="182880"/>
-          <a:ext cx="5281295" cy="4846955"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1558,8 +1529,8 @@
   <sheetPr/>
   <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:I46"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" customHeight="1"/>
@@ -1978,7 +1949,7 @@
       </c>
       <c r="I31" s="27"/>
     </row>
-    <row r="32" ht="53" customHeight="1" spans="2:9">
+    <row r="32" ht="35" customHeight="1" spans="2:9">
       <c r="B32" s="18" t="s">
         <v>38</v>
       </c>
@@ -1991,46 +1962,30 @@
       </c>
       <c r="I32" s="27"/>
     </row>
-    <row r="33" ht="53" customHeight="1" spans="2:9">
+    <row r="33" ht="34" customHeight="1" spans="2:9">
       <c r="B33" s="18" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I33" s="27"/>
     </row>
-    <row r="34" ht="53" customHeight="1" spans="2:9">
-      <c r="B34" s="18" t="s">
-        <v>40</v>
-      </c>
+    <row r="34" ht="33" customHeight="1" spans="2:9">
+      <c r="B34" s="18"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I34" s="27"/>
     </row>
-    <row r="35" ht="53" customHeight="1" spans="2:9">
-      <c r="B35" s="18" t="s">
-        <v>41</v>
-      </c>
+    <row r="35" ht="35" customHeight="1" spans="2:9">
+      <c r="B35" s="18"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I35" s="27"/>
     </row>
-    <row r="36" ht="53" customHeight="1" spans="2:9">
+    <row r="36" ht="35" customHeight="1" spans="2:9">
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21"/>
@@ -2072,21 +2027,21 @@
       </c>
       <c r="I41" s="27"/>
     </row>
-    <row r="42" ht="30" customHeight="1" spans="2:9">
-      <c r="B42" s="22" t="s">
-        <v>45</v>
+    <row r="42" customHeight="1" spans="2:9">
+      <c r="B42" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="I42" s="27"/>
     </row>
     <row r="43" ht="30" customHeight="1" spans="2:9">
       <c r="B43" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>46</v>
@@ -2098,87 +2053,96 @@
     </row>
     <row r="44" ht="30" customHeight="1" spans="2:9">
       <c r="B44" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I44" s="27"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="2:9">
       <c r="B45" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I45" s="27"/>
     </row>
     <row r="46" ht="30" customHeight="1" spans="2:9">
       <c r="B46" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I46" s="27"/>
     </row>
     <row r="47" ht="30" customHeight="1" spans="2:9">
       <c r="B47" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="27"/>
+    </row>
+    <row r="48" ht="30" customHeight="1" spans="2:9">
+      <c r="B48" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="I47" s="27"/>
-    </row>
-    <row r="48" customHeight="1" spans="2:9">
-      <c r="B48" s="18"/>
-      <c r="C48" s="11"/>
+      <c r="D48" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="I48" s="27"/>
     </row>
-    <row r="49" customHeight="1" spans="2:9">
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="28"/>
-    </row>
-    <row r="52" customHeight="1" spans="2:9">
-      <c r="B52" s="15" t="s">
+    <row r="49" ht="30" customHeight="1" spans="2:9">
+      <c r="B49" s="18"/>
+      <c r="C49" s="11"/>
+      <c r="I49" s="27"/>
+    </row>
+    <row r="50" ht="30" customHeight="1" spans="2:9">
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="28"/>
+    </row>
+    <row r="53" customHeight="1" spans="2:9">
+      <c r="B53" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="26"/>
-    </row>
-    <row r="53" customHeight="1" spans="2:9">
-      <c r="B53" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I53" s="27"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="26"/>
     </row>
     <row r="54" customHeight="1" spans="2:9">
       <c r="B54" s="17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>56</v>
@@ -2186,32 +2150,76 @@
       <c r="I54" s="27"/>
     </row>
     <row r="55" customHeight="1" spans="2:9">
-      <c r="B55" s="17"/>
+      <c r="B55" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="I55" s="27"/>
     </row>
     <row r="56" customHeight="1" spans="2:9">
-      <c r="B56" s="18"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="I56" s="27"/>
     </row>
     <row r="57" customHeight="1" spans="2:9">
-      <c r="B57" s="18"/>
+      <c r="B57" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="C57" s="11"/>
+      <c r="D57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="I57" s="27"/>
     </row>
     <row r="58" customHeight="1" spans="2:9">
-      <c r="B58" s="18"/>
+      <c r="B58" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="C58" s="11"/>
+      <c r="D58" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="I58" s="27"/>
     </row>
     <row r="59" customHeight="1" spans="2:9">
-      <c r="B59" s="18"/>
+      <c r="B59" s="18" t="s">
+        <v>62</v>
+      </c>
       <c r="C59" s="11"/>
+      <c r="D59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="I59" s="27"/>
     </row>
     <row r="60" customHeight="1" spans="2:9">
-      <c r="B60" s="18"/>
+      <c r="B60" s="18" t="s">
+        <v>64</v>
+      </c>
       <c r="C60" s="11"/>
+      <c r="D60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="I60" s="27"/>
     </row>
     <row r="61" customHeight="1" spans="2:9">
@@ -2333,12 +2341,12 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="G49:I49"/>
-    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
     <mergeCell ref="C53:I53"/>
     <mergeCell ref="C54:I54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="C55:I55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="G56:I56"/>
@@ -2364,7 +2372,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2.PreliminaryDesign/用户测试用例.xlsx
+++ b/2.PreliminaryDesign/用户测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947"/>
+    <workbookView windowWidth="17388" windowHeight="10115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
   <si>
     <t>功能描述</t>
   </si>
@@ -50,7 +50,7 @@
 登录方式：管理员</t>
   </si>
   <si>
-    <t>请输入用户名和密码</t>
+    <t>用户ID和密码不能为空</t>
   </si>
   <si>
     <t>用户ID：
@@ -71,7 +71,7 @@
 登录方式：普通用户</t>
   </si>
   <si>
-    <t>用户名或密码错误</t>
+    <t>用户ID或密码不正确</t>
   </si>
   <si>
     <t>用户ID：1001
@@ -79,15 +79,9 @@
 登录方式：管理员</t>
   </si>
   <si>
-    <t>请输入密码</t>
-  </si>
-  <si>
     <t>用户ID：
 密码：123
 登录方式：管理员</t>
-  </si>
-  <si>
-    <t>请输入用户名</t>
   </si>
   <si>
     <t>用户ID：1002
@@ -243,10 +237,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -265,29 +259,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,9 +279,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,24 +303,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,9 +325,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,17 +341,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,7 +396,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,187 +411,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,6 +816,30 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,6 +859,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -856,30 +889,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -908,21 +917,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -931,10 +925,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,137 +937,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1112,12 +1106,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,53 +1208,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>33020</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>26035</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="266700" y="182880"/>
-          <a:ext cx="5281295" cy="4846955"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1558,8 +1499,8 @@
   <sheetPr/>
   <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:I46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" customHeight="1"/>
@@ -1586,7 +1527,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="23"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" customHeight="1" spans="2:9">
       <c r="B3" s="4" t="s">
@@ -1600,7 +1541,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="24"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" customHeight="1" spans="2:9">
       <c r="B4" s="4" t="s">
@@ -1614,7 +1555,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="24"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" customHeight="1" spans="2:9">
       <c r="B5" s="4" t="s">
@@ -1630,7 +1571,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="2:9">
       <c r="B6" s="6" t="s">
@@ -1646,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="2:9">
       <c r="B7" s="6" t="s">
@@ -1662,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" ht="39" customHeight="1" spans="2:9">
       <c r="B8" s="6" t="s">
@@ -1678,7 +1619,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" ht="38" customHeight="1" spans="2:9">
       <c r="B9" s="6" t="s">
@@ -1694,7 +1635,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" ht="38" customHeight="1" spans="2:9">
       <c r="B10" s="6" t="s">
@@ -1702,35 +1643,35 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:9">
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" ht="38" customHeight="1" spans="2:9">
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="5" t="s">
@@ -1742,23 +1683,23 @@
         <v>13</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="24"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" ht="38" customHeight="1" spans="2:9">
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" ht="17.5" customHeight="1" spans="2:3">
       <c r="B14" s="11"/>
@@ -1781,14 +1722,14 @@
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
       <c r="A17" s="12"/>
@@ -1796,14 +1737,14 @@
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="12"/>
@@ -1811,14 +1752,14 @@
         <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" ht="26" customHeight="1" spans="1:9">
       <c r="A19" s="12"/>
@@ -1835,139 +1776,139 @@
         <v>8</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:9">
       <c r="A20" s="12"/>
       <c r="B20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" ht="50" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" ht="50" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" ht="50" customHeight="1" spans="2:9">
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="24"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" ht="50" customHeight="1" spans="2:9">
       <c r="B24" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="24"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" ht="50" customHeight="1" spans="2:9">
       <c r="B25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:9">
+      <c r="B28" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:9">
+      <c r="B29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="25"/>
-    </row>
-    <row r="28" customHeight="1" spans="2:9">
-      <c r="B28" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:9">
-      <c r="B29" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I29" s="27"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" customHeight="1" spans="2:9">
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="27"/>
+        <v>22</v>
+      </c>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" customHeight="1" spans="2:9">
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -1976,258 +1917,258 @@
       <c r="G31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="27"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" ht="53" customHeight="1" spans="2:9">
-      <c r="B32" s="18" t="s">
-        <v>38</v>
+      <c r="B32" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" ht="53" customHeight="1" spans="2:9">
-      <c r="B33" s="18" t="s">
-        <v>29</v>
+      <c r="B33" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="27"/>
+        <v>37</v>
+      </c>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" ht="53" customHeight="1" spans="2:9">
-      <c r="B34" s="18" t="s">
-        <v>40</v>
+      <c r="B34" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I34" s="27"/>
+        <v>24</v>
+      </c>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" ht="53" customHeight="1" spans="2:9">
-      <c r="B35" s="18" t="s">
-        <v>41</v>
+      <c r="B35" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I35" s="27"/>
+        <v>26</v>
+      </c>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" ht="53" customHeight="1" spans="2:9">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="28"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="26"/>
     </row>
     <row r="39" ht="22" customHeight="1" spans="2:9">
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="24"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="2:9">
+      <c r="B40" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:9">
+      <c r="B41" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="26"/>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="2:9">
-      <c r="B40" s="17" t="s">
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="2:9">
+      <c r="B42" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="25"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="2:9">
+      <c r="B43" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I43" s="25"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="2:9">
+      <c r="B44" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" s="25"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="2:9">
+      <c r="B45" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I45" s="25"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="2:9">
+      <c r="B46" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="25"/>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="2:9">
+      <c r="B47" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" s="25"/>
+    </row>
+    <row r="48" customHeight="1" spans="2:9">
+      <c r="B48" s="16"/>
+      <c r="C48" s="11"/>
+      <c r="I48" s="25"/>
+    </row>
+    <row r="49" customHeight="1" spans="2:9">
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="26"/>
+    </row>
+    <row r="52" customHeight="1" spans="2:9">
+      <c r="B52" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="24"/>
+    </row>
+    <row r="53" customHeight="1" spans="2:9">
+      <c r="B53" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="27"/>
-    </row>
-    <row r="41" customHeight="1" spans="2:9">
-      <c r="B41" s="17" t="s">
+      <c r="C53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I53" s="25"/>
+    </row>
+    <row r="54" customHeight="1" spans="2:9">
+      <c r="B54" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="27"/>
-    </row>
-    <row r="42" ht="30" customHeight="1" spans="2:9">
-      <c r="B42" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" s="27"/>
-    </row>
-    <row r="43" ht="30" customHeight="1" spans="2:9">
-      <c r="B43" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I43" s="27"/>
-    </row>
-    <row r="44" ht="30" customHeight="1" spans="2:9">
-      <c r="B44" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" s="27"/>
-    </row>
-    <row r="45" ht="30" customHeight="1" spans="2:9">
-      <c r="B45" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I45" s="27"/>
-    </row>
-    <row r="46" ht="30" customHeight="1" spans="2:9">
-      <c r="B46" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I46" s="27"/>
-    </row>
-    <row r="47" ht="30" customHeight="1" spans="2:9">
-      <c r="B47" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I47" s="27"/>
-    </row>
-    <row r="48" customHeight="1" spans="2:9">
-      <c r="B48" s="18"/>
-      <c r="C48" s="11"/>
-      <c r="I48" s="27"/>
-    </row>
-    <row r="49" customHeight="1" spans="2:9">
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="28"/>
-    </row>
-    <row r="52" customHeight="1" spans="2:9">
-      <c r="B52" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C52" s="16" t="s">
+      <c r="C54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="26"/>
-    </row>
-    <row r="53" customHeight="1" spans="2:9">
-      <c r="B53" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I53" s="27"/>
-    </row>
-    <row r="54" customHeight="1" spans="2:9">
-      <c r="B54" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I54" s="27"/>
+      <c r="I54" s="25"/>
     </row>
     <row r="55" customHeight="1" spans="2:9">
-      <c r="B55" s="17"/>
-      <c r="I55" s="27"/>
+      <c r="B55" s="15"/>
+      <c r="I55" s="25"/>
     </row>
     <row r="56" customHeight="1" spans="2:9">
-      <c r="B56" s="18"/>
+      <c r="B56" s="16"/>
       <c r="C56" s="11"/>
-      <c r="I56" s="27"/>
+      <c r="I56" s="25"/>
     </row>
     <row r="57" customHeight="1" spans="2:9">
-      <c r="B57" s="18"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="11"/>
-      <c r="I57" s="27"/>
+      <c r="I57" s="25"/>
     </row>
     <row r="58" customHeight="1" spans="2:9">
-      <c r="B58" s="18"/>
+      <c r="B58" s="16"/>
       <c r="C58" s="11"/>
-      <c r="I58" s="27"/>
+      <c r="I58" s="25"/>
     </row>
     <row r="59" customHeight="1" spans="2:9">
-      <c r="B59" s="18"/>
+      <c r="B59" s="16"/>
       <c r="C59" s="11"/>
-      <c r="I59" s="27"/>
+      <c r="I59" s="25"/>
     </row>
     <row r="60" customHeight="1" spans="2:9">
-      <c r="B60" s="18"/>
+      <c r="B60" s="16"/>
       <c r="C60" s="11"/>
-      <c r="I60" s="27"/>
+      <c r="I60" s="25"/>
     </row>
     <row r="61" customHeight="1" spans="2:9">
-      <c r="B61" s="18"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="11"/>
-      <c r="I61" s="27"/>
+      <c r="I61" s="25"/>
     </row>
     <row r="62" customHeight="1" spans="2:9">
-      <c r="B62" s="19"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="28"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="129">
@@ -2364,7 +2305,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/2.PreliminaryDesign/用户测试用例.xlsx
+++ b/2.PreliminaryDesign/用户测试用例.xlsx
@@ -109,7 +109,7 @@
 部门：</t>
   </si>
   <si>
-    <t>用户名不能为空</t>
+    <t>请填写完整</t>
   </si>
   <si>
     <t>姓名：小王
@@ -118,18 +118,12 @@
 部门：</t>
   </si>
   <si>
-    <t>卡号不能为空</t>
-  </si>
-  <si>
     <t>姓名：小王
 卡号：1002
 性别：
 部门：</t>
   </si>
   <si>
-    <t>卡号已存在</t>
-  </si>
-  <si>
     <t>姓名：小王
 卡号：1055
 性别：
@@ -175,10 +169,16 @@
 部门：财务</t>
   </si>
   <si>
+    <t>用户名不能为空</t>
+  </si>
+  <si>
     <t>姓名：小王
 卡号：
 性别：男
 部门：财务</t>
+  </si>
+  <si>
+    <t>卡号不能为空</t>
   </si>
   <si>
     <t>用户修改密码</t>
@@ -238,9 +238,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -259,7 +259,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,13 +301,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -294,32 +309,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,32 +332,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,16 +356,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -401,6 +393,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -411,187 +411,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,6 +816,30 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -835,30 +859,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -874,6 +874,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -908,15 +917,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -925,10 +925,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -937,133 +937,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1499,8 +1499,8 @@
   <sheetPr/>
   <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" customHeight="1"/>
@@ -1801,76 +1801,76 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="22"/>
     </row>
     <row r="22" ht="50" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="22"/>
     </row>
     <row r="23" ht="50" customHeight="1" spans="2:9">
       <c r="B23" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="22"/>
     </row>
     <row r="24" ht="50" customHeight="1" spans="2:9">
       <c r="B24" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="22"/>
     </row>
     <row r="25" ht="50" customHeight="1" spans="2:9">
       <c r="B25" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H25" s="10"/>
       <c r="I25" s="23"/>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -1894,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I29" s="25"/>
     </row>
@@ -1921,53 +1921,53 @@
     </row>
     <row r="32" ht="53" customHeight="1" spans="2:9">
       <c r="B32" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I32" s="25"/>
     </row>
     <row r="33" ht="53" customHeight="1" spans="2:9">
       <c r="B33" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I33" s="25"/>
     </row>
     <row r="34" ht="53" customHeight="1" spans="2:9">
       <c r="B34" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="I34" s="25"/>
     </row>
     <row r="35" ht="53" customHeight="1" spans="2:9">
       <c r="B35" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I35" s="25"/>
     </row>

--- a/2.PreliminaryDesign/用户测试用例.xlsx
+++ b/2.PreliminaryDesign/用户测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17388" windowHeight="10115"/>
+    <workbookView windowWidth="9995" windowHeight="10115"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>功能描述</t>
   </si>
@@ -154,31 +154,16 @@
     <t>测试管理员删除用户功能是否完善</t>
   </si>
   <si>
-    <t>姓名：小王
-卡号：1001
-性别：男
-部门：财务</t>
-  </si>
-  <si>
-    <t>卡号重复</t>
-  </si>
-  <si>
-    <t>姓名：
-卡号：1004
-性别：男
-部门：财务</t>
-  </si>
-  <si>
-    <t>用户名不能为空</t>
-  </si>
-  <si>
-    <t>姓名：小王
-卡号：
-性别：男
-部门：财务</t>
-  </si>
-  <si>
-    <t>卡号不能为空</t>
+    <t>选择删除用户，是否删除用户点击取消</t>
+  </si>
+  <si>
+    <t>未删除</t>
+  </si>
+  <si>
+    <t>选择删除用户，是否删除用户点击确定</t>
+  </si>
+  <si>
+    <t>删除成功</t>
   </si>
   <si>
     <t>用户修改密码</t>
@@ -194,13 +179,16 @@
 再次输入：123</t>
   </si>
   <si>
-    <t>修改成功</t>
+    <t>密码修改成功</t>
   </si>
   <si>
     <t>新密码：abc
 再次输入：abc</t>
   </si>
   <si>
+    <t>修改成功</t>
+  </si>
+  <si>
     <t>新密码：123
 再次输入：abc</t>
   </si>
@@ -219,17 +207,49 @@
 再次输入：1234567891234567</t>
   </si>
   <si>
-    <t>新密码：
-再次输入：</t>
-  </si>
-  <si>
-    <t>管理员获取所有用户</t>
-  </si>
-  <si>
-    <t>测试管理员获取用户功能</t>
-  </si>
-  <si>
-    <t>管理员成功登录管理员界面</t>
+    <t>管理员用户管理</t>
+  </si>
+  <si>
+    <t>测试管理员获取用户功能分页显示</t>
+  </si>
+  <si>
+    <t>管理员成功登录管理员界面进入用户管理页面</t>
+  </si>
+  <si>
+    <t>进入用户管理页面</t>
+  </si>
+  <si>
+    <t>所有用户分页显示</t>
+  </si>
+  <si>
+    <t>点击下一页，当前第一页</t>
+  </si>
+  <si>
+    <t>进入第二页</t>
+  </si>
+  <si>
+    <t>点击下一页，当前第二页</t>
+  </si>
+  <si>
+    <t>进入第第三页页</t>
+  </si>
+  <si>
+    <t>点击上一页，当前第二页</t>
+  </si>
+  <si>
+    <t>进入第一页</t>
+  </si>
+  <si>
+    <t>当前是最后一页</t>
+  </si>
+  <si>
+    <t>不能够在点击进入下一页</t>
+  </si>
+  <si>
+    <t>当前是第一页</t>
+  </si>
+  <si>
+    <t>不能够在点击进入上一页</t>
   </si>
 </sst>
 </file>
@@ -237,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -258,52 +278,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,13 +289,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,6 +310,57 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -355,15 +376,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -372,14 +385,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -395,10 +408,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -411,84 +431,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -507,25 +599,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,61 +611,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,15 +836,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,6 +855,59 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -859,30 +923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -897,26 +937,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -925,10 +945,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -937,133 +957,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1497,17 +1517,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I62"/>
+  <dimension ref="A2:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.63888888888889" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7777777777778" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5555555555556" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="6.22222222222222" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
@@ -1934,41 +1954,25 @@
     </row>
     <row r="33" ht="53" customHeight="1" spans="2:9">
       <c r="B33" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I33" s="25"/>
     </row>
     <row r="34" ht="53" customHeight="1" spans="2:9">
-      <c r="B34" s="16" t="s">
-        <v>36</v>
-      </c>
+      <c r="B34" s="16"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="I34" s="25"/>
     </row>
     <row r="35" ht="53" customHeight="1" spans="2:9">
-      <c r="B35" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="B35" s="16"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="I35" s="25"/>
     </row>
     <row r="36" ht="53" customHeight="1" spans="2:9">
@@ -1986,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -2000,7 +2004,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I40" s="25"/>
     </row>
@@ -2009,169 +2013,229 @@
         <v>4</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I41" s="25"/>
     </row>
-    <row r="42" ht="30" customHeight="1" spans="2:9">
-      <c r="B42" s="20" t="s">
-        <v>43</v>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B42" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="I42" s="25"/>
     </row>
     <row r="43" ht="30" customHeight="1" spans="2:9">
       <c r="B43" s="20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I43" s="25"/>
     </row>
     <row r="44" ht="30" customHeight="1" spans="2:9">
       <c r="B44" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I44" s="25"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="2:9">
       <c r="B45" s="20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I45" s="25"/>
     </row>
     <row r="46" ht="30" customHeight="1" spans="2:9">
       <c r="B46" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I46" s="25"/>
     </row>
     <row r="47" ht="30" customHeight="1" spans="2:9">
       <c r="B47" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="I47" s="25"/>
     </row>
-    <row r="48" customHeight="1" spans="2:9">
-      <c r="B48" s="16"/>
-      <c r="C48" s="11"/>
+    <row r="48" ht="30" customHeight="1" spans="2:9">
+      <c r="B48" s="20"/>
       <c r="I48" s="25"/>
     </row>
     <row r="49" customHeight="1" spans="2:9">
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="26"/>
-    </row>
-    <row r="52" customHeight="1" spans="2:9">
-      <c r="B52" s="13" t="s">
+      <c r="B49" s="16"/>
+      <c r="C49" s="11"/>
+      <c r="I49" s="25"/>
+    </row>
+    <row r="50" customHeight="1" spans="2:9">
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="26"/>
+    </row>
+    <row r="53" customHeight="1" spans="2:9">
+      <c r="B53" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="24"/>
-    </row>
-    <row r="53" customHeight="1" spans="2:9">
-      <c r="B53" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I53" s="25"/>
+      <c r="C53" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="24"/>
     </row>
     <row r="54" customHeight="1" spans="2:9">
       <c r="B54" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I54" s="25"/>
+    </row>
+    <row r="55" customHeight="1" spans="2:9">
+      <c r="B55" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="25"/>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B56" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="25"/>
+    </row>
+    <row r="57" customHeight="1" spans="2:7">
+      <c r="B57" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I54" s="25"/>
-    </row>
-    <row r="55" customHeight="1" spans="2:9">
-      <c r="B55" s="15"/>
-      <c r="I55" s="25"/>
-    </row>
-    <row r="56" customHeight="1" spans="2:9">
-      <c r="B56" s="16"/>
-      <c r="C56" s="11"/>
-      <c r="I56" s="25"/>
-    </row>
-    <row r="57" customHeight="1" spans="2:9">
-      <c r="B57" s="16"/>
-      <c r="C57" s="11"/>
-      <c r="I57" s="25"/>
-    </row>
-    <row r="58" customHeight="1" spans="2:9">
-      <c r="B58" s="16"/>
+      <c r="G57" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:7">
+      <c r="B58" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="C58" s="11"/>
-      <c r="I58" s="25"/>
-    </row>
-    <row r="59" customHeight="1" spans="2:9">
-      <c r="B59" s="16"/>
+      <c r="D58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="2:7">
+      <c r="B59" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="C59" s="11"/>
-      <c r="I59" s="25"/>
-    </row>
-    <row r="60" customHeight="1" spans="2:9">
-      <c r="B60" s="16"/>
+      <c r="D59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="2:7">
+      <c r="B60" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="C60" s="11"/>
-      <c r="I60" s="25"/>
-    </row>
-    <row r="61" customHeight="1" spans="2:9">
-      <c r="B61" s="16"/>
+      <c r="D60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="2:7">
+      <c r="B61" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="C61" s="11"/>
-      <c r="I61" s="25"/>
-    </row>
-    <row r="62" customHeight="1" spans="2:9">
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="26"/>
+      <c r="D61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="2:7">
+      <c r="B62" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:9">
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="129">
+  <mergeCells count="132">
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
@@ -2274,12 +2338,12 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="G49:I49"/>
-    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
     <mergeCell ref="C53:I53"/>
     <mergeCell ref="C54:I54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="C55:I55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="G56:I56"/>
@@ -2301,6 +2365,9 @@
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:F62"/>
     <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:I63"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2.PreliminaryDesign/用户测试用例.xlsx
+++ b/2.PreliminaryDesign/用户测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17388" windowHeight="10115"/>
+    <workbookView windowWidth="22368" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>功能描述</t>
   </si>
@@ -230,6 +230,33 @@
   </si>
   <si>
     <t>管理员成功登录管理员界面</t>
+  </si>
+  <si>
+    <t>选择用户管理</t>
+  </si>
+  <si>
+    <t>出现用户管理界面</t>
+  </si>
+  <si>
+    <t>成功添加一个用户</t>
+  </si>
+  <si>
+    <t>查看刚添加的是否存在</t>
+  </si>
+  <si>
+    <t>用户存在</t>
+  </si>
+  <si>
+    <t>删除该用户</t>
+  </si>
+  <si>
+    <t>删除成功</t>
+  </si>
+  <si>
+    <t>查看是否删除</t>
+  </si>
+  <si>
+    <t>删除的不存在</t>
   </si>
 </sst>
 </file>
@@ -237,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -258,6 +285,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -265,8 +300,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +322,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -288,7 +347,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,31 +368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,8 +384,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -363,38 +422,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -411,144 +438,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -559,44 +622,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -695,50 +722,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -750,7 +743,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -768,93 +761,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,7 +786,66 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -897,26 +864,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -925,10 +872,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -937,137 +884,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1107,6 +1054,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1114,39 +1070,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1497,10 +1420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I62"/>
+  <dimension ref="A2:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" customHeight="1"/>
@@ -1527,7 +1450,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="21"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="2:9">
       <c r="B3" s="4" t="s">
@@ -1541,7 +1464,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="22"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" customHeight="1" spans="2:9">
       <c r="B4" s="4" t="s">
@@ -1555,7 +1478,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="22"/>
+      <c r="I4" s="17"/>
     </row>
     <row r="5" customHeight="1" spans="2:9">
       <c r="B5" s="4" t="s">
@@ -1571,7 +1494,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="22"/>
+      <c r="I5" s="17"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="2:9">
       <c r="B6" s="6" t="s">
@@ -1587,7 +1510,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="22"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="2:9">
       <c r="B7" s="6" t="s">
@@ -1603,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="22"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" ht="39" customHeight="1" spans="2:9">
       <c r="B8" s="6" t="s">
@@ -1619,7 +1542,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" ht="38" customHeight="1" spans="2:9">
       <c r="B9" s="6" t="s">
@@ -1635,7 +1558,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" ht="38" customHeight="1" spans="2:9">
       <c r="B10" s="6" t="s">
@@ -1651,7 +1574,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:9">
       <c r="B11" s="6" t="s">
@@ -1667,7 +1590,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" ht="38" customHeight="1" spans="2:9">
       <c r="B12" s="6" t="s">
@@ -1683,7 +1606,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" ht="38" customHeight="1" spans="2:9">
       <c r="B13" s="8" t="s">
@@ -1699,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="23"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" ht="17.5" customHeight="1" spans="2:3">
       <c r="B14" s="11"/>
@@ -1729,7 +1652,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
       <c r="A17" s="12"/>
@@ -1744,7 +1667,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="12"/>
@@ -1759,7 +1682,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" ht="26" customHeight="1" spans="1:9">
       <c r="A19" s="12"/>
@@ -1776,7 +1699,7 @@
         <v>8</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:9">
       <c r="A20" s="12"/>
@@ -1793,7 +1716,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" ht="50" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
@@ -1809,7 +1732,7 @@
         <v>24</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" ht="50" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
@@ -1825,7 +1748,7 @@
         <v>24</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" ht="50" customHeight="1" spans="2:9">
       <c r="B23" s="6" t="s">
@@ -1841,7 +1764,7 @@
         <v>28</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" ht="50" customHeight="1" spans="2:9">
       <c r="B24" s="6" t="s">
@@ -1857,7 +1780,7 @@
         <v>28</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="22"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" ht="50" customHeight="1" spans="2:9">
       <c r="B25" s="8" t="s">
@@ -1873,305 +1796,470 @@
         <v>31</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="23"/>
+      <c r="I25" s="18"/>
     </row>
     <row r="28" customHeight="1" spans="2:9">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="24"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" customHeight="1" spans="2:9">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="25"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" customHeight="1" spans="2:9">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="25"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" customHeight="1" spans="2:9">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="25"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" ht="53" customHeight="1" spans="2:9">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="25"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" ht="53" customHeight="1" spans="2:9">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="25"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" ht="53" customHeight="1" spans="2:9">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="25"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" ht="53" customHeight="1" spans="2:9">
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="25"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" ht="53" customHeight="1" spans="2:9">
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="26"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="39" ht="22" customHeight="1" spans="2:9">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="24"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="2:9">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="25"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" customHeight="1" spans="2:9">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="25"/>
-    </row>
-    <row r="42" ht="30" customHeight="1" spans="2:9">
-      <c r="B42" s="20" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" customHeight="1" spans="2:9">
+      <c r="B42" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="2:9">
+      <c r="B43" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="C43" s="13"/>
+      <c r="D43" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I42" s="25"/>
-    </row>
-    <row r="43" ht="30" customHeight="1" spans="2:9">
-      <c r="B43" s="20" t="s">
+      <c r="H43" s="13"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="2:9">
+      <c r="B44" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="C44" s="13"/>
+      <c r="D44" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I43" s="25"/>
-    </row>
-    <row r="44" ht="30" customHeight="1" spans="2:9">
-      <c r="B44" s="20" t="s">
+      <c r="H44" s="13"/>
+      <c r="I44" s="17"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="2:9">
+      <c r="B45" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="C45" s="13"/>
+      <c r="D45" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="25"/>
-    </row>
-    <row r="45" ht="30" customHeight="1" spans="2:9">
-      <c r="B45" s="20" t="s">
+      <c r="H45" s="13"/>
+      <c r="I45" s="17"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="2:9">
+      <c r="B46" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="C46" s="13"/>
+      <c r="D46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" ht="30" customHeight="1" spans="2:9">
-      <c r="B46" s="20" t="s">
+      <c r="H46" s="13"/>
+      <c r="I46" s="17"/>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="2:9">
+      <c r="B47" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="C47" s="13"/>
+      <c r="D47" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="25"/>
-    </row>
-    <row r="47" ht="30" customHeight="1" spans="2:9">
-      <c r="B47" s="20" t="s">
+      <c r="H47" s="13"/>
+      <c r="I47" s="17"/>
+    </row>
+    <row r="48" ht="30" customHeight="1" spans="2:9">
+      <c r="B48" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" customHeight="1" spans="2:9">
-      <c r="B48" s="16"/>
-      <c r="C48" s="11"/>
-      <c r="I48" s="25"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="17"/>
     </row>
     <row r="49" customHeight="1" spans="2:9">
-      <c r="B49" s="17"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="26"/>
-    </row>
-    <row r="52" customHeight="1" spans="2:9">
-      <c r="B52" s="13" t="s">
+      <c r="B49" s="6"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="17"/>
+    </row>
+    <row r="50" customHeight="1" spans="2:9">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="18"/>
+    </row>
+    <row r="53" customHeight="1" spans="2:9">
+      <c r="B53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="24"/>
-    </row>
-    <row r="53" customHeight="1" spans="2:9">
-      <c r="B53" s="15" t="s">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="16"/>
+    </row>
+    <row r="54" customHeight="1" spans="2:9">
+      <c r="B54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I53" s="25"/>
-    </row>
-    <row r="54" customHeight="1" spans="2:9">
-      <c r="B54" s="15" t="s">
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="17"/>
+    </row>
+    <row r="55" customHeight="1" spans="2:9">
+      <c r="B55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I54" s="25"/>
-    </row>
-    <row r="55" customHeight="1" spans="2:9">
-      <c r="B55" s="15"/>
-      <c r="I55" s="25"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="17"/>
     </row>
     <row r="56" customHeight="1" spans="2:9">
-      <c r="B56" s="16"/>
-      <c r="C56" s="11"/>
-      <c r="I56" s="25"/>
+      <c r="B56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="17"/>
     </row>
     <row r="57" customHeight="1" spans="2:9">
-      <c r="B57" s="16"/>
-      <c r="C57" s="11"/>
-      <c r="I57" s="25"/>
+      <c r="B57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" s="13"/>
+      <c r="I57" s="17"/>
     </row>
     <row r="58" customHeight="1" spans="2:9">
-      <c r="B58" s="16"/>
-      <c r="C58" s="11"/>
-      <c r="I58" s="25"/>
+      <c r="B58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="17"/>
     </row>
     <row r="59" customHeight="1" spans="2:9">
-      <c r="B59" s="16"/>
-      <c r="C59" s="11"/>
-      <c r="I59" s="25"/>
+      <c r="B59" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59" s="13"/>
+      <c r="I59" s="17"/>
     </row>
     <row r="60" customHeight="1" spans="2:9">
-      <c r="B60" s="16"/>
-      <c r="C60" s="11"/>
-      <c r="I60" s="25"/>
+      <c r="B60" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="17"/>
     </row>
     <row r="61" customHeight="1" spans="2:9">
-      <c r="B61" s="16"/>
-      <c r="C61" s="11"/>
-      <c r="I61" s="25"/>
+      <c r="B61" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="17"/>
     </row>
     <row r="62" customHeight="1" spans="2:9">
-      <c r="B62" s="17"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="26"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="17"/>
+    </row>
+    <row r="63" customHeight="1" spans="2:9">
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="129">
+  <mergeCells count="132">
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
@@ -2274,12 +2362,12 @@
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:F49"/>
     <mergeCell ref="G49:I49"/>
-    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
     <mergeCell ref="C53:I53"/>
     <mergeCell ref="C54:I54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="C55:I55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="G56:I56"/>
@@ -2301,6 +2389,9 @@
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="D62:F62"/>
     <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="G63:I63"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2.PreliminaryDesign/用户测试用例.xlsx
+++ b/2.PreliminaryDesign/用户测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9995" windowHeight="10115"/>
+    <workbookView windowWidth="22368" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>功能描述</t>
   </si>
@@ -214,6 +214,30 @@
   </si>
   <si>
     <t>管理员成功登录管理员界面进入用户管理页面</t>
+  </si>
+  <si>
+    <t>选择用户管理</t>
+  </si>
+  <si>
+    <t>出现用户管理界面</t>
+  </si>
+  <si>
+    <t>成功添加一个用户</t>
+  </si>
+  <si>
+    <t>查看刚添加的是否存在</t>
+  </si>
+  <si>
+    <t>用户存在</t>
+  </si>
+  <si>
+    <t>删除该用户</t>
+  </si>
+  <si>
+    <t>查看是否删除</t>
+  </si>
+  <si>
+    <t>删除的不存在</t>
   </si>
   <si>
     <t>进入用户管理页面</t>
@@ -259,8 +283,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -278,9 +302,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,26 +362,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -325,43 +378,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -384,18 +402,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,7 +426,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,6 +438,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -431,19 +455,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,55 +623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,110 +639,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -715,42 +739,92 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,83 +833,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,32 +849,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,39 +873,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,10 +889,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,137 +901,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,6 +1071,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,37 +1095,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1517,10 +1446,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:I63"/>
+  <dimension ref="A2:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62:I62"/>
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" customHeight="1"/>
@@ -1547,7 +1476,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="21"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" customHeight="1" spans="2:9">
       <c r="B3" s="4" t="s">
@@ -1561,7 +1490,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="22"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" customHeight="1" spans="2:9">
       <c r="B4" s="4" t="s">
@@ -1575,7 +1504,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="22"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" customHeight="1" spans="2:9">
       <c r="B5" s="4" t="s">
@@ -1591,7 +1520,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="22"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="2:9">
       <c r="B6" s="6" t="s">
@@ -1607,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="22"/>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="2:9">
       <c r="B7" s="6" t="s">
@@ -1623,7 +1552,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="22"/>
+      <c r="I7" s="19"/>
     </row>
     <row r="8" ht="39" customHeight="1" spans="2:9">
       <c r="B8" s="6" t="s">
@@ -1639,7 +1568,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" ht="38" customHeight="1" spans="2:9">
       <c r="B9" s="6" t="s">
@@ -1655,7 +1584,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="19"/>
     </row>
     <row r="10" ht="38" customHeight="1" spans="2:9">
       <c r="B10" s="6" t="s">
@@ -1671,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:9">
       <c r="B11" s="6" t="s">
@@ -1687,7 +1616,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="19"/>
     </row>
     <row r="12" ht="38" customHeight="1" spans="2:9">
       <c r="B12" s="6" t="s">
@@ -1703,7 +1632,7 @@
         <v>13</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="22"/>
+      <c r="I12" s="19"/>
     </row>
     <row r="13" ht="38" customHeight="1" spans="2:9">
       <c r="B13" s="8" t="s">
@@ -1719,7 +1648,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="23"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" ht="17.5" customHeight="1" spans="2:3">
       <c r="B14" s="11"/>
@@ -1749,7 +1678,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
       <c r="A17" s="12"/>
@@ -1764,7 +1693,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="12"/>
@@ -1779,7 +1708,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" ht="26" customHeight="1" spans="1:9">
       <c r="A19" s="12"/>
@@ -1796,7 +1725,7 @@
         <v>8</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:9">
       <c r="A20" s="12"/>
@@ -1813,7 +1742,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" ht="50" customHeight="1" spans="2:9">
       <c r="B21" s="6" t="s">
@@ -1829,7 +1758,7 @@
         <v>24</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" ht="50" customHeight="1" spans="2:9">
       <c r="B22" s="6" t="s">
@@ -1845,7 +1774,7 @@
         <v>24</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" ht="50" customHeight="1" spans="2:9">
       <c r="B23" s="6" t="s">
@@ -1861,7 +1790,7 @@
         <v>28</v>
       </c>
       <c r="H23" s="5"/>
-      <c r="I23" s="22"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" ht="50" customHeight="1" spans="2:9">
       <c r="B24" s="6" t="s">
@@ -1877,7 +1806,7 @@
         <v>28</v>
       </c>
       <c r="H24" s="5"/>
-      <c r="I24" s="22"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" ht="50" customHeight="1" spans="2:9">
       <c r="B25" s="8" t="s">
@@ -1893,349 +1822,502 @@
         <v>31</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="I25" s="23"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="28" customHeight="1" spans="2:9">
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="24"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="18"/>
     </row>
     <row r="29" customHeight="1" spans="2:9">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I29" s="25"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" customHeight="1" spans="2:9">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="25"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" customHeight="1" spans="2:9">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="13"/>
+      <c r="D31" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="25"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="32" ht="53" customHeight="1" spans="2:9">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="25"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="19"/>
     </row>
     <row r="33" ht="53" customHeight="1" spans="2:9">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="14"/>
+      <c r="D33" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I33" s="25"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="19"/>
     </row>
     <row r="34" ht="53" customHeight="1" spans="2:9">
-      <c r="B34" s="16"/>
-      <c r="C34" s="11"/>
-      <c r="I34" s="25"/>
-    </row>
-    <row r="35" ht="53" customHeight="1" spans="2:9">
-      <c r="B35" s="16"/>
-      <c r="C35" s="11"/>
-      <c r="I35" s="25"/>
-    </row>
-    <row r="36" ht="53" customHeight="1" spans="2:9">
-      <c r="B36" s="17"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="26"/>
-    </row>
-    <row r="39" ht="22" customHeight="1" spans="2:9">
-      <c r="B39" s="13" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="37" ht="22" customHeight="1" spans="2:9">
+      <c r="B37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C37" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="24"/>
-    </row>
-    <row r="40" ht="30" customHeight="1" spans="2:9">
-      <c r="B40" s="15" t="s">
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="2:9">
+      <c r="B38" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C38" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="25"/>
-    </row>
-    <row r="41" customHeight="1" spans="2:9">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="19"/>
+    </row>
+    <row r="39" customHeight="1" spans="2:9">
+      <c r="B39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="19"/>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="2:9">
       <c r="B41" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="19"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="2:9">
+      <c r="B42" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="2:9">
+      <c r="B43" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="19"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="2:9">
+      <c r="B44" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="2:9">
+      <c r="B45" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="19"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="2:9">
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="20"/>
+    </row>
+    <row r="49" customHeight="1" spans="2:9">
+      <c r="B49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="18"/>
+    </row>
+    <row r="50" customHeight="1" spans="2:9">
+      <c r="B50" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="19"/>
+    </row>
+    <row r="51" customHeight="1" spans="2:9">
+      <c r="B51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="25"/>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B42" s="15" t="s">
+      <c r="C51" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="19"/>
+    </row>
+    <row r="52" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B52" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="I52" s="19"/>
+    </row>
+    <row r="53" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="5"/>
+      <c r="I53" s="19"/>
+    </row>
+    <row r="54" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B54" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="5"/>
+      <c r="I54" s="19"/>
+    </row>
+    <row r="55" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B55" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" s="5"/>
+      <c r="I55" s="19"/>
+    </row>
+    <row r="56" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" s="5"/>
+      <c r="I56" s="19"/>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="2:9">
+      <c r="B57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="C57" s="13"/>
+      <c r="D57" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="25"/>
-    </row>
-    <row r="43" ht="30" customHeight="1" spans="2:9">
-      <c r="B43" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I43" s="25"/>
-    </row>
-    <row r="44" ht="30" customHeight="1" spans="2:9">
-      <c r="B44" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I44" s="25"/>
-    </row>
-    <row r="45" ht="30" customHeight="1" spans="2:9">
-      <c r="B45" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="25"/>
-    </row>
-    <row r="46" ht="30" customHeight="1" spans="2:9">
-      <c r="B46" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I46" s="25"/>
-    </row>
-    <row r="47" ht="30" customHeight="1" spans="2:9">
-      <c r="B47" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I47" s="25"/>
-    </row>
-    <row r="48" ht="30" customHeight="1" spans="2:9">
-      <c r="B48" s="20"/>
-      <c r="I48" s="25"/>
-    </row>
-    <row r="49" customHeight="1" spans="2:9">
-      <c r="B49" s="16"/>
-      <c r="C49" s="11"/>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="50" customHeight="1" spans="2:9">
-      <c r="B50" s="17"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="26"/>
-    </row>
-    <row r="53" customHeight="1" spans="2:9">
-      <c r="B53" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="24"/>
-    </row>
-    <row r="54" customHeight="1" spans="2:9">
-      <c r="B54" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I54" s="25"/>
-    </row>
-    <row r="55" customHeight="1" spans="2:9">
-      <c r="B55" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I55" s="25"/>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B56" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I56" s="25"/>
-    </row>
-    <row r="57" customHeight="1" spans="2:7">
-      <c r="B57" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="2:7">
-      <c r="B58" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="2:7">
-      <c r="B59" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="2:7">
-      <c r="B60" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="2:7">
-      <c r="B61" s="16" t="s">
+      <c r="H57" s="13"/>
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" customHeight="1" spans="2:9">
+      <c r="B58" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="1" t="s">
+      <c r="C58" s="14"/>
+      <c r="D58" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" customHeight="1" spans="2:7">
-      <c r="B62" s="16" t="s">
+      <c r="H58" s="13"/>
+      <c r="I58" s="21"/>
+    </row>
+    <row r="59" customHeight="1" spans="2:9">
+      <c r="B59" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="1" t="s">
+      <c r="C59" s="14"/>
+      <c r="D59" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13" t="s">
         <v>64</v>
       </c>
+      <c r="H59" s="13"/>
+      <c r="I59" s="21"/>
+    </row>
+    <row r="60" customHeight="1" spans="2:9">
+      <c r="B60" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" customHeight="1" spans="2:9">
+      <c r="B61" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="21"/>
+    </row>
+    <row r="62" customHeight="1" spans="2:9">
+      <c r="B62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="21"/>
     </row>
     <row r="63" customHeight="1" spans="2:9">
-      <c r="B63" s="17"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="26"/>
+      <c r="B63" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="21"/>
+    </row>
+    <row r="64" customHeight="1" spans="2:9">
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="135">
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="C3:I3"/>
     <mergeCell ref="C4:I4"/>
@@ -2305,15 +2387,15 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C38:I38"/>
     <mergeCell ref="C39:I39"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:F42"/>
     <mergeCell ref="G42:I42"/>
@@ -2329,21 +2411,21 @@
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="G46:I46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="C55:I55"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:I55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="G56:I56"/>
@@ -2368,6 +2450,9 @@
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="D63:F63"/>
     <mergeCell ref="G63:I63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="G64:I64"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/2.PreliminaryDesign/用户测试用例.xlsx
+++ b/2.PreliminaryDesign/用户测试用例.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9947"/>
+    <workbookView windowWidth="21288" windowHeight="10524"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -281,10 +279,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -302,8 +300,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,22 +377,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,38 +408,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -387,7 +415,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,31 +430,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,13 +443,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -455,37 +453,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,150 +627,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -649,6 +647,96 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -694,6 +782,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -703,128 +806,229 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,6 +1043,36 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -849,6 +1083,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,26 +1119,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -889,10 +1127,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -901,137 +1139,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1071,21 +1309,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1095,7 +1318,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1448,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A2:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" customHeight="1"/>
@@ -1476,7 +1765,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="18"/>
+      <c r="I2" s="30"/>
     </row>
     <row r="3" customHeight="1" spans="2:9">
       <c r="B3" s="4" t="s">
@@ -1490,7 +1779,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="19"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" customHeight="1" spans="2:9">
       <c r="B4" s="4" t="s">
@@ -1504,7 +1793,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="19"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" customHeight="1" spans="2:9">
       <c r="B5" s="4" t="s">
@@ -1520,7 +1809,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="2:9">
       <c r="B6" s="6" t="s">
@@ -1532,11 +1821,9 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="2:9">
       <c r="B7" s="6" t="s">
@@ -1548,11 +1835,9 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" ht="39" customHeight="1" spans="2:9">
       <c r="B8" s="6" t="s">
@@ -1564,11 +1849,9 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" ht="38" customHeight="1" spans="2:9">
       <c r="B9" s="6" t="s">
@@ -1580,11 +1863,9 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="19"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" ht="38" customHeight="1" spans="2:9">
       <c r="B10" s="6" t="s">
@@ -1596,11 +1877,9 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" ht="38" customHeight="1" spans="2:9">
       <c r="B11" s="6" t="s">
@@ -1612,11 +1891,9 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" ht="38" customHeight="1" spans="2:9">
       <c r="B12" s="6" t="s">
@@ -1628,11 +1905,9 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" ht="38" customHeight="1" spans="2:9">
       <c r="B13" s="8" t="s">
@@ -1644,11 +1919,9 @@
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>10</v>
-      </c>
+      <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" ht="17.5" customHeight="1" spans="2:3">
       <c r="B14" s="11"/>
@@ -1667,22 +1940,22 @@
     </row>
     <row r="16" customHeight="1" spans="1:9">
       <c r="A16" s="12"/>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="18"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
       <c r="A17" s="12"/>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -1693,11 +1966,11 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="19"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
       <c r="A18" s="12"/>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1708,11 +1981,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="19"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" ht="26" customHeight="1" spans="1:9">
       <c r="A19" s="12"/>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="15" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="5"/>
@@ -1725,11 +1998,11 @@
         <v>8</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" ht="50" customHeight="1" spans="1:9">
       <c r="A20" s="12"/>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="7"/>
@@ -1738,14 +2011,12 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="19"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" ht="50" customHeight="1" spans="2:9">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="7"/>
@@ -1754,14 +2025,12 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="19"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" ht="50" customHeight="1" spans="2:9">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="7"/>
@@ -1770,14 +2039,12 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="19"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" ht="50" customHeight="1" spans="2:9">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="7"/>
@@ -1786,14 +2053,12 @@
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" ht="50" customHeight="1" spans="2:9">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="7"/>
@@ -1802,519 +2067,477 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-      <c r="I24" s="19"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" ht="50" customHeight="1" spans="2:9">
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="20"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="28" customHeight="1" spans="2:9">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="18"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="35"/>
     </row>
     <row r="29" customHeight="1" spans="2:9">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="19"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" customHeight="1" spans="2:9">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="19"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" customHeight="1" spans="2:9">
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="19"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" ht="53" customHeight="1" spans="2:9">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="13"/>
-      <c r="I32" s="19"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" ht="53" customHeight="1" spans="2:9">
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="24"/>
+      <c r="D33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="19"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" ht="53" customHeight="1" spans="2:9">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="20"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="37"/>
     </row>
     <row r="37" ht="22" customHeight="1" spans="2:9">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="18"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="33"/>
     </row>
     <row r="38" ht="30" customHeight="1" spans="2:9">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="19"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" customHeight="1" spans="2:9">
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="19"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13" t="s">
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="13"/>
-      <c r="I40" s="19"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="34"/>
     </row>
     <row r="41" ht="30" customHeight="1" spans="2:9">
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="19"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="34"/>
     </row>
     <row r="42" ht="30" customHeight="1" spans="2:9">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="2:9">
+      <c r="B43" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="2:9">
+      <c r="B44" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="2:9">
+      <c r="B45" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="19"/>
-    </row>
-    <row r="43" ht="30" customHeight="1" spans="2:9">
-      <c r="B43" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="19"/>
-    </row>
-    <row r="44" ht="30" customHeight="1" spans="2:9">
-      <c r="B44" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="19"/>
-    </row>
-    <row r="45" ht="30" customHeight="1" spans="2:9">
-      <c r="B45" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="19"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="34"/>
     </row>
     <row r="46" ht="30" customHeight="1" spans="2:9">
-      <c r="B46" s="16"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="20"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="38"/>
     </row>
     <row r="49" customHeight="1" spans="2:9">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="18"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="33"/>
     </row>
     <row r="50" customHeight="1" spans="2:9">
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="19"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="34"/>
     </row>
     <row r="51" customHeight="1" spans="2:9">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="19"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="34"/>
     </row>
     <row r="52" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="7"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="5" t="s">
-        <v>54</v>
-      </c>
+      <c r="G52" s="5"/>
       <c r="H52" s="5"/>
-      <c r="I52" s="19"/>
+      <c r="I52" s="34"/>
     </row>
     <row r="53" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C53" s="7"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="5" t="s">
         <v>28</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="G53" s="5"/>
       <c r="H53" s="5"/>
-      <c r="I53" s="19"/>
+      <c r="I53" s="34"/>
     </row>
     <row r="54" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="19"/>
+      <c r="I54" s="34"/>
     </row>
     <row r="55" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="G55" s="5"/>
       <c r="H55" s="5"/>
-      <c r="I55" s="19"/>
+      <c r="I55" s="34"/>
     </row>
     <row r="56" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C56" s="7"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="5" t="s">
         <v>60</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="5" t="s">
-        <v>60</v>
-      </c>
+      <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="19"/>
+      <c r="I56" s="34"/>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="2:9">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="13"/>
-      <c r="I57" s="19"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="34"/>
     </row>
     <row r="58" customHeight="1" spans="2:9">
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="13" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="21"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="34"/>
     </row>
     <row r="59" customHeight="1" spans="2:9">
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="13" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H59" s="13"/>
-      <c r="I59" s="21"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="34"/>
     </row>
     <row r="60" customHeight="1" spans="2:9">
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="13" t="s">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H60" s="13"/>
-      <c r="I60" s="21"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="34"/>
     </row>
     <row r="61" customHeight="1" spans="2:9">
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="13" t="s">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="21"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="34"/>
     </row>
     <row r="62" customHeight="1" spans="2:9">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="13" t="s">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="21"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="34"/>
     </row>
     <row r="63" customHeight="1" spans="2:9">
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="13" t="s">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="21"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="34"/>
     </row>
     <row r="64" customHeight="1" spans="2:9">
-      <c r="B64" s="8"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="20"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="135">
@@ -2458,38 +2681,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>